--- a/att/src/main/resources/incidents/Tennis/TennisE2E.xlsx
+++ b/att/src/main/resources/incidents/Tennis/TennisE2E.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelumalai\att\sportsbookautomation\src\main\resources\incidents\Tennis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgurjar\IdeaProjects\cucumberautomation\att\src\main\resources\incidents\Tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117B7A3-1396-4466-97BF-3690D933D142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set1" sheetId="1" r:id="rId1"/>
@@ -435,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1662,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2493,10 +2494,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E31"/>
     </sheetView>
   </sheetViews>
@@ -3347,10 +3348,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3499,7 +3500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
